--- a/prototipo/calibracion_markers/python/desfases_markers_final.xlsx
+++ b/prototipo/calibracion_markers/python/desfases_markers_final.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerar\Desktop\tesis_ger\prototipo\calibracion_markers\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F87025-2A96-48B7-9289-85E755DA8E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391382D6-2278-4491-A4BD-63D44ABD1652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="1785" windowWidth="11595" windowHeight="11295" xr2:uid="{6EE0676F-9A8C-41C6-A4CD-1139689651CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6EE0676F-9A8C-41C6-A4CD-1139689651CA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Finales" sheetId="1" r:id="rId1"/>
+    <sheet name="Todas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>Marcador</t>
   </si>
@@ -68,11 +69,29 @@
       <t xml:space="preserve"> en grados</t>
     </r>
   </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Desfase θz en grados</t>
+  </si>
+  <si>
+    <t>Fase previa</t>
+  </si>
+  <si>
+    <t>Fase actual</t>
+  </si>
+  <si>
+    <t>Finales</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,6 +165,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5916300D-7668-4BBA-A1CD-9B26A30D10E5}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,4 +710,359 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9FFEC7-621A-4D85-8EDA-DE6C52191B3D}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>91.994702747105705</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>91.994702747105705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>-46.814569482191501</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-47.274682200000001</v>
+      </c>
+      <c r="D4" s="8">
+        <v>-47.274682200000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>-92.390490716445001</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-90.322781669999998</v>
+      </c>
+      <c r="D5" s="8">
+        <v>-90.322781669999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>-138.20668559103299</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-135.78909519999999</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-135.78909519999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>176.37515477240899</v>
+      </c>
+      <c r="C7" s="8">
+        <v>179.37151950000001</v>
+      </c>
+      <c r="D7" s="8">
+        <v>179.37151950000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>-144.18215331752501</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-141.02745479999999</v>
+      </c>
+      <c r="D8" s="8">
+        <v>-141.02745479999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>-176.319253482048</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-175.05417929999999</v>
+      </c>
+      <c r="D9" s="8">
+        <v>-175.05417929999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>-79.952453890004307</v>
+      </c>
+      <c r="C10" s="8">
+        <v>-78.115430970000006</v>
+      </c>
+      <c r="D10" s="8">
+        <v>-78.115430970000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>-9.8762104580109398</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>-9.8762104580109398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <v>139.35785573035099</v>
+      </c>
+      <c r="C12" s="8">
+        <v>143.2079276</v>
+      </c>
+      <c r="D12" s="8">
+        <v>143.2079276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
+        <v>111.93284607034199</v>
+      </c>
+      <c r="C13" s="8">
+        <v>111.08327970000001</v>
+      </c>
+      <c r="D13" s="8">
+        <v>111.08327970000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8">
+        <v>167.576101289131</v>
+      </c>
+      <c r="C14" s="8">
+        <v>166.17181890000001</v>
+      </c>
+      <c r="D14" s="8">
+        <v>166.17181890000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
+        <v>-128.07086011377601</v>
+      </c>
+      <c r="C15" s="8">
+        <v>-127.3111755</v>
+      </c>
+      <c r="D15" s="8">
+        <v>-127.3111755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8">
+        <v>-111.14036389633701</v>
+      </c>
+      <c r="C16" s="8">
+        <v>-109.4993486</v>
+      </c>
+      <c r="D16" s="8">
+        <v>-109.4993486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8">
+        <v>-43.411216577805703</v>
+      </c>
+      <c r="C17" s="8">
+        <v>-40.739442820000001</v>
+      </c>
+      <c r="D17" s="8">
+        <v>-40.739442820000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8">
+        <v>-104.1691129</v>
+      </c>
+      <c r="D18" s="8">
+        <v>-104.1691129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8">
+        <v>-121.19275709999999</v>
+      </c>
+      <c r="D19" s="8">
+        <v>-121.19275709999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8">
+        <v>-92.481220329999999</v>
+      </c>
+      <c r="D20" s="8">
+        <v>-92.481220329999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4.2980502439999997</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4.2980502439999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8">
+        <v>-133.2161012</v>
+      </c>
+      <c r="D22" s="8">
+        <v>-133.2161012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>-112.04770430000001</v>
+      </c>
+      <c r="D23" s="8">
+        <v>-112.04770430000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>-15.28469666</v>
+      </c>
+      <c r="D24" s="8">
+        <v>-15.28469666</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>